--- a/OUTPUT/BI_ABASTECIMENTO/OS_PD.xlsx
+++ b/OUTPUT/BI_ABASTECIMENTO/OS_PD.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C261"/>
+  <dimension ref="A1:C274"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1413,219 +1413,219 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>46024</v>
+        <v>46025</v>
       </c>
       <c r="B89" t="n">
-        <v>122313</v>
+        <v>180808</v>
       </c>
       <c r="C89" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>46024</v>
+        <v>46027</v>
       </c>
       <c r="B90" t="n">
-        <v>122591</v>
+        <v>122531</v>
       </c>
       <c r="C90" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>46024</v>
+        <v>46029</v>
       </c>
       <c r="B91" t="n">
-        <v>180080</v>
+        <v>1260</v>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>46024</v>
+        <v>46029</v>
       </c>
       <c r="B92" t="n">
-        <v>180121</v>
+        <v>1272</v>
       </c>
       <c r="C92" t="n">
-        <v>21</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>46024</v>
+        <v>46029</v>
       </c>
       <c r="B93" t="n">
-        <v>180185</v>
+        <v>180101</v>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>46025</v>
+        <v>46029</v>
       </c>
       <c r="B94" t="n">
-        <v>1260</v>
+        <v>180782</v>
       </c>
       <c r="C94" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>46025</v>
+        <v>46030</v>
       </c>
       <c r="B95" t="n">
-        <v>100080</v>
+        <v>1272</v>
       </c>
       <c r="C95" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>46025</v>
+        <v>46030</v>
       </c>
       <c r="B96" t="n">
-        <v>122591</v>
+        <v>26082</v>
       </c>
       <c r="C96" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>46025</v>
+        <v>46030</v>
       </c>
       <c r="B97" t="n">
-        <v>180101</v>
+        <v>36699</v>
       </c>
       <c r="C97" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>46025</v>
+        <v>46030</v>
       </c>
       <c r="B98" t="n">
-        <v>180121</v>
+        <v>100080</v>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>74</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>46025</v>
+        <v>46030</v>
       </c>
       <c r="B99" t="n">
-        <v>180185</v>
+        <v>122313</v>
       </c>
       <c r="C99" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>46025</v>
+        <v>46030</v>
       </c>
       <c r="B100" t="n">
-        <v>180782</v>
+        <v>180080</v>
       </c>
       <c r="C100" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>46025</v>
+        <v>46030</v>
       </c>
       <c r="B101" t="n">
-        <v>180808</v>
+        <v>180101</v>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>46025</v>
+        <v>46030</v>
       </c>
       <c r="B102" t="n">
-        <v>180863</v>
+        <v>180121</v>
       </c>
       <c r="C102" t="n">
-        <v>39</v>
+        <v>79</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>46027</v>
+        <v>46030</v>
       </c>
       <c r="B103" t="n">
-        <v>180782</v>
+        <v>180185</v>
       </c>
       <c r="C103" t="n">
-        <v>523</v>
+        <v>9</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>45778</v>
+        <v>46030</v>
       </c>
       <c r="B104" t="n">
-        <v>1</v>
+        <v>180753</v>
       </c>
       <c r="C104" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>45779</v>
+        <v>46030</v>
       </c>
       <c r="B105" t="n">
-        <v>1</v>
+        <v>180782</v>
       </c>
       <c r="C105" t="n">
-        <v>21</v>
+        <v>51</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>45782</v>
+        <v>46030</v>
       </c>
       <c r="B106" t="n">
-        <v>1</v>
+        <v>180808</v>
       </c>
       <c r="C106" t="n">
-        <v>26</v>
+        <v>11</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>45783</v>
+        <v>46031</v>
       </c>
       <c r="B107" t="n">
-        <v>1</v>
+        <v>100080</v>
       </c>
       <c r="C107" t="n">
-        <v>4</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>45784</v>
+        <v>46031</v>
       </c>
       <c r="B108" t="n">
-        <v>1</v>
+        <v>122313</v>
       </c>
       <c r="C108" t="n">
         <v>26</v>
@@ -1633,139 +1633,139 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>45785</v>
+        <v>46031</v>
       </c>
       <c r="B109" t="n">
-        <v>1</v>
+        <v>122591</v>
       </c>
       <c r="C109" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>45786</v>
+        <v>46031</v>
       </c>
       <c r="B110" t="n">
-        <v>1</v>
+        <v>180121</v>
       </c>
       <c r="C110" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>45787</v>
+        <v>46031</v>
       </c>
       <c r="B111" t="n">
-        <v>1</v>
+        <v>180185</v>
       </c>
       <c r="C111" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>45789</v>
+        <v>46031</v>
       </c>
       <c r="B112" t="n">
-        <v>1</v>
+        <v>180275</v>
       </c>
       <c r="C112" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>45790</v>
+        <v>46031</v>
       </c>
       <c r="B113" t="n">
-        <v>1</v>
+        <v>180808</v>
       </c>
       <c r="C113" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>45791</v>
+        <v>46031</v>
       </c>
       <c r="B114" t="n">
-        <v>1</v>
+        <v>180909</v>
       </c>
       <c r="C114" t="n">
-        <v>27</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>45792</v>
+        <v>45778</v>
       </c>
       <c r="B115" t="n">
         <v>1</v>
       </c>
       <c r="C115" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>45793</v>
+        <v>45779</v>
       </c>
       <c r="B116" t="n">
         <v>1</v>
       </c>
       <c r="C116" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>45796</v>
+        <v>45782</v>
       </c>
       <c r="B117" t="n">
         <v>1</v>
       </c>
       <c r="C117" t="n">
-        <v>6</v>
+        <v>26</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>45797</v>
+        <v>45783</v>
       </c>
       <c r="B118" t="n">
         <v>1</v>
       </c>
       <c r="C118" t="n">
-        <v>75</v>
+        <v>4</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>45798</v>
+        <v>45784</v>
       </c>
       <c r="B119" t="n">
         <v>1</v>
       </c>
       <c r="C119" t="n">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>45800</v>
+        <v>45785</v>
       </c>
       <c r="B120" t="n">
         <v>1</v>
       </c>
       <c r="C120" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>45801</v>
+        <v>45786</v>
       </c>
       <c r="B121" t="n">
         <v>1</v>
@@ -1776,1514 +1776,1514 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>45803</v>
+        <v>45787</v>
       </c>
       <c r="B122" t="n">
         <v>1</v>
       </c>
       <c r="C122" t="n">
-        <v>177</v>
+        <v>3</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>45804</v>
+        <v>45789</v>
       </c>
       <c r="B123" t="n">
         <v>1</v>
       </c>
       <c r="C123" t="n">
-        <v>256</v>
+        <v>16</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>45805</v>
+        <v>45790</v>
       </c>
       <c r="B124" t="n">
         <v>1</v>
       </c>
       <c r="C124" t="n">
-        <v>167</v>
+        <v>16</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>45806</v>
+        <v>45791</v>
       </c>
       <c r="B125" t="n">
         <v>1</v>
       </c>
       <c r="C125" t="n">
-        <v>60</v>
+        <v>27</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>45807</v>
+        <v>45792</v>
       </c>
       <c r="B126" t="n">
         <v>1</v>
       </c>
       <c r="C126" t="n">
-        <v>148</v>
+        <v>12</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>45808</v>
+        <v>45793</v>
       </c>
       <c r="B127" t="n">
         <v>1</v>
       </c>
       <c r="C127" t="n">
-        <v>4</v>
+        <v>19</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>45810</v>
+        <v>45796</v>
       </c>
       <c r="B128" t="n">
         <v>1</v>
       </c>
       <c r="C128" t="n">
-        <v>129</v>
+        <v>6</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>45811</v>
+        <v>45797</v>
       </c>
       <c r="B129" t="n">
         <v>1</v>
       </c>
       <c r="C129" t="n">
-        <v>152</v>
+        <v>75</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>45812</v>
+        <v>45798</v>
       </c>
       <c r="B130" t="n">
         <v>1</v>
       </c>
       <c r="C130" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>45813</v>
+        <v>45800</v>
       </c>
       <c r="B131" t="n">
         <v>1</v>
       </c>
       <c r="C131" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>45814</v>
+        <v>45801</v>
       </c>
       <c r="B132" t="n">
         <v>1</v>
       </c>
       <c r="C132" t="n">
-        <v>68</v>
+        <v>6</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>45817</v>
+        <v>45803</v>
       </c>
       <c r="B133" t="n">
         <v>1</v>
       </c>
       <c r="C133" t="n">
-        <v>32</v>
+        <v>177</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>45818</v>
+        <v>45804</v>
       </c>
       <c r="B134" t="n">
         <v>1</v>
       </c>
       <c r="C134" t="n">
-        <v>50</v>
+        <v>256</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>45819</v>
+        <v>45805</v>
       </c>
       <c r="B135" t="n">
         <v>1</v>
       </c>
       <c r="C135" t="n">
-        <v>23</v>
+        <v>167</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>45820</v>
+        <v>45806</v>
       </c>
       <c r="B136" t="n">
         <v>1</v>
       </c>
       <c r="C136" t="n">
-        <v>76</v>
+        <v>60</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>45821</v>
+        <v>45807</v>
       </c>
       <c r="B137" t="n">
         <v>1</v>
       </c>
       <c r="C137" t="n">
-        <v>106</v>
+        <v>148</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>45824</v>
+        <v>45808</v>
       </c>
       <c r="B138" t="n">
         <v>1</v>
       </c>
       <c r="C138" t="n">
-        <v>121</v>
+        <v>4</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>45825</v>
+        <v>45810</v>
       </c>
       <c r="B139" t="n">
         <v>1</v>
       </c>
       <c r="C139" t="n">
-        <v>159</v>
+        <v>129</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>45826</v>
+        <v>45811</v>
       </c>
       <c r="B140" t="n">
         <v>1</v>
       </c>
       <c r="C140" t="n">
-        <v>82</v>
+        <v>152</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>45827</v>
+        <v>45812</v>
       </c>
       <c r="B141" t="n">
         <v>1</v>
       </c>
       <c r="C141" t="n">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>45828</v>
+        <v>45813</v>
       </c>
       <c r="B142" t="n">
         <v>1</v>
       </c>
       <c r="C142" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>45831</v>
+        <v>45814</v>
       </c>
       <c r="B143" t="n">
         <v>1</v>
       </c>
       <c r="C143" t="n">
-        <v>46</v>
+        <v>68</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>45832</v>
+        <v>45817</v>
       </c>
       <c r="B144" t="n">
         <v>1</v>
       </c>
       <c r="C144" t="n">
-        <v>82</v>
+        <v>32</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>45833</v>
+        <v>45818</v>
       </c>
       <c r="B145" t="n">
         <v>1</v>
       </c>
       <c r="C145" t="n">
-        <v>63</v>
+        <v>50</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>45834</v>
+        <v>45819</v>
       </c>
       <c r="B146" t="n">
         <v>1</v>
       </c>
       <c r="C146" t="n">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>45835</v>
+        <v>45820</v>
       </c>
       <c r="B147" t="n">
         <v>1</v>
       </c>
       <c r="C147" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>45838</v>
+        <v>45821</v>
       </c>
       <c r="B148" t="n">
         <v>1</v>
       </c>
       <c r="C148" t="n">
-        <v>17</v>
+        <v>106</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>45839</v>
+        <v>45824</v>
       </c>
       <c r="B149" t="n">
         <v>1</v>
       </c>
       <c r="C149" t="n">
-        <v>64</v>
+        <v>121</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
-        <v>45840</v>
+        <v>45825</v>
       </c>
       <c r="B150" t="n">
         <v>1</v>
       </c>
       <c r="C150" t="n">
-        <v>15</v>
+        <v>159</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
-        <v>45841</v>
+        <v>45826</v>
       </c>
       <c r="B151" t="n">
         <v>1</v>
       </c>
       <c r="C151" t="n">
-        <v>154</v>
+        <v>82</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
-        <v>45842</v>
+        <v>45827</v>
       </c>
       <c r="B152" t="n">
         <v>1</v>
       </c>
       <c r="C152" t="n">
-        <v>57</v>
+        <v>19</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
-        <v>45845</v>
+        <v>45828</v>
       </c>
       <c r="B153" t="n">
         <v>1</v>
       </c>
       <c r="C153" t="n">
-        <v>52</v>
+        <v>19</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
-        <v>45846</v>
+        <v>45831</v>
       </c>
       <c r="B154" t="n">
         <v>1</v>
       </c>
       <c r="C154" t="n">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>45847</v>
+        <v>45832</v>
       </c>
       <c r="B155" t="n">
         <v>1</v>
       </c>
       <c r="C155" t="n">
-        <v>37</v>
+        <v>82</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
-        <v>45848</v>
+        <v>45833</v>
       </c>
       <c r="B156" t="n">
         <v>1</v>
       </c>
       <c r="C156" t="n">
-        <v>87</v>
+        <v>63</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
-        <v>45849</v>
+        <v>45834</v>
       </c>
       <c r="B157" t="n">
         <v>1</v>
       </c>
       <c r="C157" t="n">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
-        <v>45852</v>
+        <v>45835</v>
       </c>
       <c r="B158" t="n">
         <v>1</v>
       </c>
       <c r="C158" t="n">
-        <v>88</v>
+        <v>77</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
-        <v>45853</v>
+        <v>45838</v>
       </c>
       <c r="B159" t="n">
         <v>1</v>
       </c>
       <c r="C159" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
-        <v>45854</v>
+        <v>45839</v>
       </c>
       <c r="B160" t="n">
         <v>1</v>
       </c>
       <c r="C160" t="n">
-        <v>89</v>
+        <v>64</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>45855</v>
+        <v>45840</v>
       </c>
       <c r="B161" t="n">
         <v>1</v>
       </c>
       <c r="C161" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
-        <v>45856</v>
+        <v>45841</v>
       </c>
       <c r="B162" t="n">
         <v>1</v>
       </c>
       <c r="C162" t="n">
-        <v>8</v>
+        <v>154</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
-        <v>45859</v>
+        <v>45842</v>
       </c>
       <c r="B163" t="n">
         <v>1</v>
       </c>
       <c r="C163" t="n">
-        <v>44</v>
+        <v>57</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
-        <v>45860</v>
+        <v>45845</v>
       </c>
       <c r="B164" t="n">
         <v>1</v>
       </c>
       <c r="C164" t="n">
-        <v>73</v>
+        <v>52</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
-        <v>45861</v>
+        <v>45846</v>
       </c>
       <c r="B165" t="n">
         <v>1</v>
       </c>
       <c r="C165" t="n">
-        <v>21</v>
+        <v>43</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
-        <v>45862</v>
+        <v>45847</v>
       </c>
       <c r="B166" t="n">
         <v>1</v>
       </c>
       <c r="C166" t="n">
-        <v>13</v>
+        <v>37</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>45863</v>
+        <v>45848</v>
       </c>
       <c r="B167" t="n">
         <v>1</v>
       </c>
       <c r="C167" t="n">
-        <v>39</v>
+        <v>87</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
-        <v>45866</v>
+        <v>45849</v>
       </c>
       <c r="B168" t="n">
         <v>1</v>
       </c>
       <c r="C168" t="n">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
-        <v>45867</v>
+        <v>45852</v>
       </c>
       <c r="B169" t="n">
         <v>1</v>
       </c>
       <c r="C169" t="n">
-        <v>31</v>
+        <v>88</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
-        <v>45868</v>
+        <v>45853</v>
       </c>
       <c r="B170" t="n">
         <v>1</v>
       </c>
       <c r="C170" t="n">
-        <v>41</v>
+        <v>19</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
-        <v>45869</v>
+        <v>45854</v>
       </c>
       <c r="B171" t="n">
         <v>1</v>
       </c>
       <c r="C171" t="n">
-        <v>46</v>
+        <v>89</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
-        <v>45870</v>
+        <v>45855</v>
       </c>
       <c r="B172" t="n">
         <v>1</v>
       </c>
       <c r="C172" t="n">
-        <v>25</v>
+        <v>45</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
-        <v>45873</v>
+        <v>45856</v>
       </c>
       <c r="B173" t="n">
         <v>1</v>
       </c>
       <c r="C173" t="n">
-        <v>42</v>
+        <v>8</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
-        <v>45874</v>
+        <v>45859</v>
       </c>
       <c r="B174" t="n">
         <v>1</v>
       </c>
       <c r="C174" t="n">
-        <v>1</v>
+        <v>44</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
-        <v>45875</v>
+        <v>45860</v>
       </c>
       <c r="B175" t="n">
         <v>1</v>
       </c>
       <c r="C175" t="n">
-        <v>21</v>
+        <v>73</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
-        <v>45876</v>
+        <v>45861</v>
       </c>
       <c r="B176" t="n">
         <v>1</v>
       </c>
       <c r="C176" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
-        <v>45877</v>
+        <v>45862</v>
       </c>
       <c r="B177" t="n">
         <v>1</v>
       </c>
       <c r="C177" t="n">
-        <v>69</v>
+        <v>13</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
-        <v>45880</v>
+        <v>45863</v>
       </c>
       <c r="B178" t="n">
         <v>1</v>
       </c>
       <c r="C178" t="n">
-        <v>2</v>
+        <v>39</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
-        <v>45881</v>
+        <v>45866</v>
       </c>
       <c r="B179" t="n">
         <v>1</v>
       </c>
       <c r="C179" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
-        <v>45882</v>
+        <v>45867</v>
       </c>
       <c r="B180" t="n">
         <v>1</v>
       </c>
       <c r="C180" t="n">
-        <v>2</v>
+        <v>31</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
-        <v>45883</v>
+        <v>45868</v>
       </c>
       <c r="B181" t="n">
         <v>1</v>
       </c>
       <c r="C181" t="n">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>45884</v>
+        <v>45869</v>
       </c>
       <c r="B182" t="n">
         <v>1</v>
       </c>
       <c r="C182" t="n">
-        <v>7</v>
+        <v>46</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
-        <v>45887</v>
+        <v>45870</v>
       </c>
       <c r="B183" t="n">
         <v>1</v>
       </c>
       <c r="C183" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
-        <v>45888</v>
+        <v>45873</v>
       </c>
       <c r="B184" t="n">
         <v>1</v>
       </c>
       <c r="C184" t="n">
-        <v>32</v>
+        <v>42</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
-        <v>45889</v>
+        <v>45874</v>
       </c>
       <c r="B185" t="n">
         <v>1</v>
       </c>
       <c r="C185" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
-        <v>45890</v>
+        <v>45875</v>
       </c>
       <c r="B186" t="n">
         <v>1</v>
       </c>
       <c r="C186" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
-        <v>45891</v>
+        <v>45876</v>
       </c>
       <c r="B187" t="n">
         <v>1</v>
       </c>
       <c r="C187" t="n">
-        <v>54</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
-        <v>45892</v>
+        <v>45877</v>
       </c>
       <c r="B188" t="n">
         <v>1</v>
       </c>
       <c r="C188" t="n">
-        <v>1</v>
+        <v>69</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
-        <v>45894</v>
+        <v>45880</v>
       </c>
       <c r="B189" t="n">
         <v>1</v>
       </c>
       <c r="C189" t="n">
-        <v>54</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
-        <v>45895</v>
+        <v>45881</v>
       </c>
       <c r="B190" t="n">
         <v>1</v>
       </c>
       <c r="C190" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
-        <v>45896</v>
+        <v>45882</v>
       </c>
       <c r="B191" t="n">
         <v>1</v>
       </c>
       <c r="C191" t="n">
-        <v>57</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
-        <v>45897</v>
+        <v>45883</v>
       </c>
       <c r="B192" t="n">
         <v>1</v>
       </c>
       <c r="C192" t="n">
-        <v>73</v>
+        <v>50</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
-        <v>45898</v>
+        <v>45884</v>
       </c>
       <c r="B193" t="n">
         <v>1</v>
       </c>
       <c r="C193" t="n">
-        <v>64</v>
+        <v>7</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
-        <v>45901</v>
+        <v>45887</v>
       </c>
       <c r="B194" t="n">
         <v>1</v>
       </c>
       <c r="C194" t="n">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
-        <v>45902</v>
+        <v>45888</v>
       </c>
       <c r="B195" t="n">
         <v>1</v>
       </c>
       <c r="C195" t="n">
-        <v>18</v>
+        <v>32</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
-        <v>45903</v>
+        <v>45889</v>
       </c>
       <c r="B196" t="n">
         <v>1</v>
       </c>
       <c r="C196" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
-        <v>45904</v>
+        <v>45890</v>
       </c>
       <c r="B197" t="n">
         <v>1</v>
       </c>
       <c r="C197" t="n">
-        <v>33</v>
+        <v>8</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
-        <v>45908</v>
+        <v>45891</v>
       </c>
       <c r="B198" t="n">
         <v>1</v>
       </c>
       <c r="C198" t="n">
-        <v>37</v>
+        <v>54</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
-        <v>45909</v>
+        <v>45892</v>
       </c>
       <c r="B199" t="n">
         <v>1</v>
       </c>
       <c r="C199" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
-        <v>45910</v>
+        <v>45894</v>
       </c>
       <c r="B200" t="n">
         <v>1</v>
       </c>
       <c r="C200" t="n">
-        <v>8</v>
+        <v>54</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
-        <v>45911</v>
+        <v>45895</v>
       </c>
       <c r="B201" t="n">
         <v>1</v>
       </c>
       <c r="C201" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
-        <v>45912</v>
+        <v>45896</v>
       </c>
       <c r="B202" t="n">
         <v>1</v>
       </c>
       <c r="C202" t="n">
-        <v>34</v>
+        <v>57</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
-        <v>45915</v>
+        <v>45897</v>
       </c>
       <c r="B203" t="n">
         <v>1</v>
       </c>
       <c r="C203" t="n">
-        <v>8</v>
+        <v>73</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
-        <v>45916</v>
+        <v>45898</v>
       </c>
       <c r="B204" t="n">
         <v>1</v>
       </c>
       <c r="C204" t="n">
-        <v>132</v>
+        <v>64</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
-        <v>45917</v>
+        <v>45901</v>
       </c>
       <c r="B205" t="n">
         <v>1</v>
       </c>
       <c r="C205" t="n">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
-        <v>45918</v>
+        <v>45902</v>
       </c>
       <c r="B206" t="n">
         <v>1</v>
       </c>
       <c r="C206" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
-        <v>45922</v>
+        <v>45903</v>
       </c>
       <c r="B207" t="n">
         <v>1</v>
       </c>
       <c r="C207" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
-        <v>45923</v>
+        <v>45904</v>
       </c>
       <c r="B208" t="n">
         <v>1</v>
       </c>
       <c r="C208" t="n">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
-        <v>45924</v>
+        <v>45908</v>
       </c>
       <c r="B209" t="n">
         <v>1</v>
       </c>
       <c r="C209" t="n">
-        <v>14</v>
+        <v>37</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
-        <v>45925</v>
+        <v>45909</v>
       </c>
       <c r="B210" t="n">
         <v>1</v>
       </c>
       <c r="C210" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
-        <v>45926</v>
+        <v>45910</v>
       </c>
       <c r="B211" t="n">
         <v>1</v>
       </c>
       <c r="C211" t="n">
-        <v>22</v>
+        <v>8</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
-        <v>45929</v>
+        <v>45911</v>
       </c>
       <c r="B212" t="n">
         <v>1</v>
       </c>
       <c r="C212" t="n">
-        <v>57</v>
+        <v>8</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
-        <v>45930</v>
+        <v>45912</v>
       </c>
       <c r="B213" t="n">
         <v>1</v>
       </c>
       <c r="C213" t="n">
-        <v>13</v>
+        <v>34</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
-        <v>45931</v>
+        <v>45915</v>
       </c>
       <c r="B214" t="n">
         <v>1</v>
       </c>
       <c r="C214" t="n">
-        <v>55</v>
+        <v>8</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
-        <v>45932</v>
+        <v>45916</v>
       </c>
       <c r="B215" t="n">
         <v>1</v>
       </c>
       <c r="C215" t="n">
-        <v>12</v>
+        <v>132</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
-        <v>45933</v>
+        <v>45917</v>
       </c>
       <c r="B216" t="n">
         <v>1</v>
       </c>
       <c r="C216" t="n">
-        <v>77</v>
+        <v>34</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
-        <v>45934</v>
+        <v>45918</v>
       </c>
       <c r="B217" t="n">
         <v>1</v>
       </c>
       <c r="C217" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
-        <v>45936</v>
+        <v>45922</v>
       </c>
       <c r="B218" t="n">
         <v>1</v>
       </c>
       <c r="C218" t="n">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
-        <v>45937</v>
+        <v>45923</v>
       </c>
       <c r="B219" t="n">
         <v>1</v>
       </c>
       <c r="C219" t="n">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
-        <v>45938</v>
+        <v>45924</v>
       </c>
       <c r="B220" t="n">
         <v>1</v>
       </c>
       <c r="C220" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
-        <v>45939</v>
+        <v>45925</v>
       </c>
       <c r="B221" t="n">
         <v>1</v>
       </c>
       <c r="C221" t="n">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
-        <v>45940</v>
+        <v>45926</v>
       </c>
       <c r="B222" t="n">
         <v>1</v>
       </c>
       <c r="C222" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="n">
-        <v>45943</v>
+        <v>45929</v>
       </c>
       <c r="B223" t="n">
         <v>1</v>
       </c>
       <c r="C223" t="n">
-        <v>22</v>
+        <v>57</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
-        <v>45944</v>
+        <v>45930</v>
       </c>
       <c r="B224" t="n">
         <v>1</v>
       </c>
       <c r="C224" t="n">
-        <v>31</v>
+        <v>13</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="n">
-        <v>45945</v>
+        <v>45931</v>
       </c>
       <c r="B225" t="n">
         <v>1</v>
       </c>
       <c r="C225" t="n">
-        <v>1</v>
+        <v>55</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
-        <v>45946</v>
+        <v>45932</v>
       </c>
       <c r="B226" t="n">
         <v>1</v>
       </c>
       <c r="C226" t="n">
-        <v>49</v>
+        <v>12</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
-        <v>45947</v>
+        <v>45933</v>
       </c>
       <c r="B227" t="n">
         <v>1</v>
       </c>
       <c r="C227" t="n">
-        <v>13</v>
+        <v>77</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
-        <v>45948</v>
+        <v>45934</v>
       </c>
       <c r="B228" t="n">
         <v>1</v>
       </c>
       <c r="C228" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
-        <v>45950</v>
+        <v>45936</v>
       </c>
       <c r="B229" t="n">
         <v>1</v>
       </c>
       <c r="C229" t="n">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
-        <v>45951</v>
+        <v>45937</v>
       </c>
       <c r="B230" t="n">
         <v>1</v>
       </c>
       <c r="C230" t="n">
-        <v>14</v>
+        <v>41</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="n">
-        <v>45952</v>
+        <v>45938</v>
       </c>
       <c r="B231" t="n">
         <v>1</v>
       </c>
       <c r="C231" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
-        <v>45953</v>
+        <v>45939</v>
       </c>
       <c r="B232" t="n">
         <v>1</v>
       </c>
       <c r="C232" t="n">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
-        <v>45954</v>
+        <v>45940</v>
       </c>
       <c r="B233" t="n">
         <v>1</v>
       </c>
       <c r="C233" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
-        <v>45957</v>
+        <v>45943</v>
       </c>
       <c r="B234" t="n">
         <v>1</v>
       </c>
       <c r="C234" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="n">
-        <v>45958</v>
+        <v>45944</v>
       </c>
       <c r="B235" t="n">
         <v>1</v>
       </c>
       <c r="C235" t="n">
-        <v>42</v>
+        <v>31</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="n">
-        <v>45959</v>
+        <v>45945</v>
       </c>
       <c r="B236" t="n">
         <v>1</v>
       </c>
       <c r="C236" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="n">
-        <v>45960</v>
+        <v>45946</v>
       </c>
       <c r="B237" t="n">
         <v>1</v>
       </c>
       <c r="C237" t="n">
-        <v>32</v>
+        <v>49</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="n">
-        <v>45961</v>
+        <v>45947</v>
       </c>
       <c r="B238" t="n">
         <v>1</v>
       </c>
       <c r="C238" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="n">
-        <v>45962</v>
+        <v>45948</v>
       </c>
       <c r="B239" t="n">
         <v>1</v>
       </c>
       <c r="C239" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="n">
-        <v>45964</v>
+        <v>45950</v>
       </c>
       <c r="B240" t="n">
         <v>1</v>
       </c>
       <c r="C240" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="n">
-        <v>45965</v>
+        <v>45951</v>
       </c>
       <c r="B241" t="n">
         <v>1</v>
       </c>
       <c r="C241" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="n">
-        <v>45966</v>
+        <v>45952</v>
       </c>
       <c r="B242" t="n">
         <v>1</v>
       </c>
       <c r="C242" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="n">
-        <v>45967</v>
+        <v>45953</v>
       </c>
       <c r="B243" t="n">
         <v>1</v>
       </c>
       <c r="C243" t="n">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="n">
-        <v>45968</v>
+        <v>45954</v>
       </c>
       <c r="B244" t="n">
         <v>1</v>
       </c>
       <c r="C244" t="n">
-        <v>40</v>
+        <v>24</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="n">
-        <v>45971</v>
+        <v>45957</v>
       </c>
       <c r="B245" t="n">
         <v>1</v>
       </c>
       <c r="C245" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="n">
-        <v>45972</v>
+        <v>45958</v>
       </c>
       <c r="B246" t="n">
         <v>1</v>
       </c>
       <c r="C246" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="n">
-        <v>45973</v>
+        <v>45959</v>
       </c>
       <c r="B247" t="n">
         <v>1</v>
       </c>
       <c r="C247" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="n">
-        <v>45974</v>
+        <v>45960</v>
       </c>
       <c r="B248" t="n">
         <v>1</v>
       </c>
       <c r="C248" t="n">
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="n">
-        <v>45975</v>
+        <v>45961</v>
       </c>
       <c r="B249" t="n">
         <v>1</v>
       </c>
       <c r="C249" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="n">
-        <v>45978</v>
+        <v>45962</v>
       </c>
       <c r="B250" t="n">
         <v>1</v>
       </c>
       <c r="C250" t="n">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="n">
-        <v>45980</v>
+        <v>45964</v>
       </c>
       <c r="B251" t="n">
         <v>1</v>
       </c>
       <c r="C251" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="n">
-        <v>45982</v>
+        <v>45965</v>
       </c>
       <c r="B252" t="n">
         <v>1</v>
       </c>
       <c r="C252" t="n">
-        <v>35</v>
+        <v>7</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="n">
-        <v>45985</v>
+        <v>45966</v>
       </c>
       <c r="B253" t="n">
         <v>1</v>
       </c>
       <c r="C253" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="n">
-        <v>45986</v>
+        <v>45967</v>
       </c>
       <c r="B254" t="n">
         <v>1</v>
       </c>
       <c r="C254" t="n">
-        <v>2</v>
+        <v>33</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="n">
-        <v>45987</v>
+        <v>45968</v>
       </c>
       <c r="B255" t="n">
         <v>1</v>
       </c>
       <c r="C255" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="n">
-        <v>45988</v>
+        <v>45971</v>
       </c>
       <c r="B256" t="n">
         <v>1</v>
       </c>
       <c r="C256" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="n">
-        <v>45989</v>
+        <v>45972</v>
       </c>
       <c r="B257" t="n">
         <v>1</v>
       </c>
       <c r="C257" t="n">
-        <v>34</v>
+        <v>46</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="n">
-        <v>45990</v>
+        <v>45973</v>
       </c>
       <c r="B258" t="n">
         <v>1</v>
       </c>
       <c r="C258" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="n">
-        <v>46024</v>
+        <v>45974</v>
       </c>
       <c r="B259" t="n">
         <v>1</v>
@@ -3294,24 +3294,167 @@
     </row>
     <row r="260">
       <c r="A260" s="2" t="n">
-        <v>46025</v>
+        <v>45975</v>
       </c>
       <c r="B260" t="n">
         <v>1</v>
       </c>
       <c r="C260" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="n">
+        <v>45978</v>
+      </c>
+      <c r="B261" t="n">
+        <v>1</v>
+      </c>
+      <c r="C261" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="2" t="n">
+        <v>45980</v>
+      </c>
+      <c r="B262" t="n">
+        <v>1</v>
+      </c>
+      <c r="C262" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="2" t="n">
+        <v>45982</v>
+      </c>
+      <c r="B263" t="n">
+        <v>1</v>
+      </c>
+      <c r="C263" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="2" t="n">
+        <v>45985</v>
+      </c>
+      <c r="B264" t="n">
+        <v>1</v>
+      </c>
+      <c r="C264" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="2" t="n">
+        <v>45986</v>
+      </c>
+      <c r="B265" t="n">
+        <v>1</v>
+      </c>
+      <c r="C265" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="2" t="n">
+        <v>45987</v>
+      </c>
+      <c r="B266" t="n">
+        <v>1</v>
+      </c>
+      <c r="C266" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="2" t="n">
+        <v>45988</v>
+      </c>
+      <c r="B267" t="n">
+        <v>1</v>
+      </c>
+      <c r="C267" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="2" t="n">
+        <v>45989</v>
+      </c>
+      <c r="B268" t="n">
+        <v>1</v>
+      </c>
+      <c r="C268" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="2" t="n">
+        <v>45990</v>
+      </c>
+      <c r="B269" t="n">
+        <v>1</v>
+      </c>
+      <c r="C269" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="2" t="n">
+        <v>46024</v>
+      </c>
+      <c r="B270" t="n">
+        <v>1</v>
+      </c>
+      <c r="C270" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="2" t="n">
         <v>46027</v>
       </c>
-      <c r="B261" t="n">
-        <v>1</v>
-      </c>
-      <c r="C261" t="n">
-        <v>12</v>
+      <c r="B271" t="n">
+        <v>1</v>
+      </c>
+      <c r="C271" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="2" t="n">
+        <v>46028</v>
+      </c>
+      <c r="B272" t="n">
+        <v>1</v>
+      </c>
+      <c r="C272" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="2" t="n">
+        <v>46029</v>
+      </c>
+      <c r="B273" t="n">
+        <v>1</v>
+      </c>
+      <c r="C273" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="2" t="n">
+        <v>46030</v>
+      </c>
+      <c r="B274" t="n">
+        <v>1</v>
+      </c>
+      <c r="C274" t="n">
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/OUTPUT/BI_ABASTECIMENTO/OS_PD.xlsx
+++ b/OUTPUT/BI_ABASTECIMENTO/OS_PD.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C274"/>
+  <dimension ref="A1:C284"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1474,7 +1474,7 @@
         <v>180782</v>
       </c>
       <c r="C94" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="95">
@@ -1507,7 +1507,7 @@
         <v>36699</v>
       </c>
       <c r="C97" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="98">
@@ -1518,7 +1518,7 @@
         <v>100080</v>
       </c>
       <c r="C98" t="n">
-        <v>74</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99">
@@ -1526,10 +1526,10 @@
         <v>46030</v>
       </c>
       <c r="B99" t="n">
-        <v>122313</v>
+        <v>180101</v>
       </c>
       <c r="C99" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="100">
@@ -1537,10 +1537,10 @@
         <v>46030</v>
       </c>
       <c r="B100" t="n">
-        <v>180080</v>
+        <v>180185</v>
       </c>
       <c r="C100" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="101">
@@ -1548,40 +1548,40 @@
         <v>46030</v>
       </c>
       <c r="B101" t="n">
-        <v>180101</v>
+        <v>180782</v>
       </c>
       <c r="C101" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>46030</v>
+        <v>46031</v>
       </c>
       <c r="B102" t="n">
-        <v>180121</v>
+        <v>26082</v>
       </c>
       <c r="C102" t="n">
-        <v>79</v>
+        <v>12</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>46030</v>
+        <v>46031</v>
       </c>
       <c r="B103" t="n">
-        <v>180185</v>
+        <v>100080</v>
       </c>
       <c r="C103" t="n">
-        <v>9</v>
+        <v>36</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>46030</v>
+        <v>46031</v>
       </c>
       <c r="B104" t="n">
-        <v>180753</v>
+        <v>122313</v>
       </c>
       <c r="C104" t="n">
         <v>1</v>
@@ -1589,24 +1589,24 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>46030</v>
+        <v>46031</v>
       </c>
       <c r="B105" t="n">
-        <v>180782</v>
+        <v>122591</v>
       </c>
       <c r="C105" t="n">
-        <v>51</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>46030</v>
+        <v>46031</v>
       </c>
       <c r="B106" t="n">
-        <v>180808</v>
+        <v>180075</v>
       </c>
       <c r="C106" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107">
@@ -1614,10 +1614,10 @@
         <v>46031</v>
       </c>
       <c r="B107" t="n">
-        <v>100080</v>
+        <v>180080</v>
       </c>
       <c r="C107" t="n">
-        <v>1137</v>
+        <v>96</v>
       </c>
     </row>
     <row r="108">
@@ -1625,10 +1625,10 @@
         <v>46031</v>
       </c>
       <c r="B108" t="n">
-        <v>122313</v>
+        <v>180101</v>
       </c>
       <c r="C108" t="n">
-        <v>26</v>
+        <v>9</v>
       </c>
     </row>
     <row r="109">
@@ -1636,10 +1636,10 @@
         <v>46031</v>
       </c>
       <c r="B109" t="n">
-        <v>122591</v>
+        <v>180121</v>
       </c>
       <c r="C109" t="n">
-        <v>3</v>
+        <v>109</v>
       </c>
     </row>
     <row r="110">
@@ -1647,10 +1647,10 @@
         <v>46031</v>
       </c>
       <c r="B110" t="n">
-        <v>180121</v>
+        <v>180185</v>
       </c>
       <c r="C110" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="111">
@@ -1658,10 +1658,10 @@
         <v>46031</v>
       </c>
       <c r="B111" t="n">
-        <v>180185</v>
+        <v>180753</v>
       </c>
       <c r="C111" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="112">
@@ -1669,1489 +1669,1489 @@
         <v>46031</v>
       </c>
       <c r="B112" t="n">
-        <v>180275</v>
+        <v>180782</v>
       </c>
       <c r="C112" t="n">
-        <v>2</v>
+        <v>25</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>46031</v>
+        <v>46032</v>
       </c>
       <c r="B113" t="n">
-        <v>180808</v>
+        <v>1256</v>
       </c>
       <c r="C113" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>46031</v>
+        <v>46032</v>
       </c>
       <c r="B114" t="n">
-        <v>180909</v>
+        <v>122313</v>
       </c>
       <c r="C114" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>45778</v>
+        <v>46032</v>
       </c>
       <c r="B115" t="n">
-        <v>1</v>
+        <v>122591</v>
       </c>
       <c r="C115" t="n">
-        <v>3</v>
+        <v>25</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>45779</v>
+        <v>46032</v>
       </c>
       <c r="B116" t="n">
-        <v>1</v>
+        <v>180075</v>
       </c>
       <c r="C116" t="n">
-        <v>21</v>
+        <v>3</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>45782</v>
+        <v>46032</v>
       </c>
       <c r="B117" t="n">
-        <v>1</v>
+        <v>180091</v>
       </c>
       <c r="C117" t="n">
-        <v>26</v>
+        <v>3</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>45783</v>
+        <v>46032</v>
       </c>
       <c r="B118" t="n">
-        <v>1</v>
+        <v>180121</v>
       </c>
       <c r="C118" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>45784</v>
+        <v>46032</v>
       </c>
       <c r="B119" t="n">
-        <v>1</v>
+        <v>180185</v>
       </c>
       <c r="C119" t="n">
-        <v>26</v>
+        <v>9</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>45785</v>
+        <v>46032</v>
       </c>
       <c r="B120" t="n">
-        <v>1</v>
+        <v>180275</v>
       </c>
       <c r="C120" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>45786</v>
+        <v>46032</v>
       </c>
       <c r="B121" t="n">
-        <v>1</v>
+        <v>180753</v>
       </c>
       <c r="C121" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>45787</v>
+        <v>46032</v>
       </c>
       <c r="B122" t="n">
-        <v>1</v>
+        <v>180782</v>
       </c>
       <c r="C122" t="n">
-        <v>3</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>45789</v>
+        <v>46032</v>
       </c>
       <c r="B123" t="n">
-        <v>1</v>
+        <v>180808</v>
       </c>
       <c r="C123" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>45790</v>
+        <v>45778</v>
       </c>
       <c r="B124" t="n">
         <v>1</v>
       </c>
       <c r="C124" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>45791</v>
+        <v>45779</v>
       </c>
       <c r="B125" t="n">
         <v>1</v>
       </c>
       <c r="C125" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>45792</v>
+        <v>45782</v>
       </c>
       <c r="B126" t="n">
         <v>1</v>
       </c>
       <c r="C126" t="n">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>45793</v>
+        <v>45783</v>
       </c>
       <c r="B127" t="n">
         <v>1</v>
       </c>
       <c r="C127" t="n">
-        <v>19</v>
+        <v>4</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>45796</v>
+        <v>45784</v>
       </c>
       <c r="B128" t="n">
         <v>1</v>
       </c>
       <c r="C128" t="n">
-        <v>6</v>
+        <v>26</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>45797</v>
+        <v>45785</v>
       </c>
       <c r="B129" t="n">
         <v>1</v>
       </c>
       <c r="C129" t="n">
-        <v>75</v>
+        <v>5</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>45798</v>
+        <v>45786</v>
       </c>
       <c r="B130" t="n">
         <v>1</v>
       </c>
       <c r="C130" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>45800</v>
+        <v>45787</v>
       </c>
       <c r="B131" t="n">
         <v>1</v>
       </c>
       <c r="C131" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>45801</v>
+        <v>45789</v>
       </c>
       <c r="B132" t="n">
         <v>1</v>
       </c>
       <c r="C132" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>45803</v>
+        <v>45790</v>
       </c>
       <c r="B133" t="n">
         <v>1</v>
       </c>
       <c r="C133" t="n">
-        <v>177</v>
+        <v>16</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>45804</v>
+        <v>45791</v>
       </c>
       <c r="B134" t="n">
         <v>1</v>
       </c>
       <c r="C134" t="n">
-        <v>256</v>
+        <v>27</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>45805</v>
+        <v>45792</v>
       </c>
       <c r="B135" t="n">
         <v>1</v>
       </c>
       <c r="C135" t="n">
-        <v>167</v>
+        <v>12</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>45806</v>
+        <v>45793</v>
       </c>
       <c r="B136" t="n">
         <v>1</v>
       </c>
       <c r="C136" t="n">
-        <v>60</v>
+        <v>19</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>45807</v>
+        <v>45796</v>
       </c>
       <c r="B137" t="n">
         <v>1</v>
       </c>
       <c r="C137" t="n">
-        <v>148</v>
+        <v>6</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>45808</v>
+        <v>45797</v>
       </c>
       <c r="B138" t="n">
         <v>1</v>
       </c>
       <c r="C138" t="n">
-        <v>4</v>
+        <v>75</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>45810</v>
+        <v>45798</v>
       </c>
       <c r="B139" t="n">
         <v>1</v>
       </c>
       <c r="C139" t="n">
-        <v>129</v>
+        <v>13</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>45811</v>
+        <v>45800</v>
       </c>
       <c r="B140" t="n">
         <v>1</v>
       </c>
       <c r="C140" t="n">
-        <v>152</v>
+        <v>12</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>45812</v>
+        <v>45801</v>
       </c>
       <c r="B141" t="n">
         <v>1</v>
       </c>
       <c r="C141" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>45813</v>
+        <v>45803</v>
       </c>
       <c r="B142" t="n">
         <v>1</v>
       </c>
       <c r="C142" t="n">
-        <v>22</v>
+        <v>177</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>45814</v>
+        <v>45804</v>
       </c>
       <c r="B143" t="n">
         <v>1</v>
       </c>
       <c r="C143" t="n">
-        <v>68</v>
+        <v>256</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>45817</v>
+        <v>45805</v>
       </c>
       <c r="B144" t="n">
         <v>1</v>
       </c>
       <c r="C144" t="n">
-        <v>32</v>
+        <v>167</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>45818</v>
+        <v>45806</v>
       </c>
       <c r="B145" t="n">
         <v>1</v>
       </c>
       <c r="C145" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>45819</v>
+        <v>45807</v>
       </c>
       <c r="B146" t="n">
         <v>1</v>
       </c>
       <c r="C146" t="n">
-        <v>23</v>
+        <v>148</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>45820</v>
+        <v>45808</v>
       </c>
       <c r="B147" t="n">
         <v>1</v>
       </c>
       <c r="C147" t="n">
-        <v>76</v>
+        <v>4</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>45821</v>
+        <v>45810</v>
       </c>
       <c r="B148" t="n">
         <v>1</v>
       </c>
       <c r="C148" t="n">
-        <v>106</v>
+        <v>129</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>45824</v>
+        <v>45811</v>
       </c>
       <c r="B149" t="n">
         <v>1</v>
       </c>
       <c r="C149" t="n">
-        <v>121</v>
+        <v>152</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
-        <v>45825</v>
+        <v>45812</v>
       </c>
       <c r="B150" t="n">
         <v>1</v>
       </c>
       <c r="C150" t="n">
-        <v>159</v>
+        <v>5</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
-        <v>45826</v>
+        <v>45813</v>
       </c>
       <c r="B151" t="n">
         <v>1</v>
       </c>
       <c r="C151" t="n">
-        <v>82</v>
+        <v>22</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
-        <v>45827</v>
+        <v>45814</v>
       </c>
       <c r="B152" t="n">
         <v>1</v>
       </c>
       <c r="C152" t="n">
-        <v>19</v>
+        <v>68</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
-        <v>45828</v>
+        <v>45817</v>
       </c>
       <c r="B153" t="n">
         <v>1</v>
       </c>
       <c r="C153" t="n">
-        <v>19</v>
+        <v>32</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
-        <v>45831</v>
+        <v>45818</v>
       </c>
       <c r="B154" t="n">
         <v>1</v>
       </c>
       <c r="C154" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>45832</v>
+        <v>45819</v>
       </c>
       <c r="B155" t="n">
         <v>1</v>
       </c>
       <c r="C155" t="n">
-        <v>82</v>
+        <v>23</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
-        <v>45833</v>
+        <v>45820</v>
       </c>
       <c r="B156" t="n">
         <v>1</v>
       </c>
       <c r="C156" t="n">
-        <v>63</v>
+        <v>76</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
-        <v>45834</v>
+        <v>45821</v>
       </c>
       <c r="B157" t="n">
         <v>1</v>
       </c>
       <c r="C157" t="n">
-        <v>35</v>
+        <v>106</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
-        <v>45835</v>
+        <v>45824</v>
       </c>
       <c r="B158" t="n">
         <v>1</v>
       </c>
       <c r="C158" t="n">
-        <v>77</v>
+        <v>121</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
-        <v>45838</v>
+        <v>45825</v>
       </c>
       <c r="B159" t="n">
         <v>1</v>
       </c>
       <c r="C159" t="n">
-        <v>17</v>
+        <v>159</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
-        <v>45839</v>
+        <v>45826</v>
       </c>
       <c r="B160" t="n">
         <v>1</v>
       </c>
       <c r="C160" t="n">
-        <v>64</v>
+        <v>82</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>45840</v>
+        <v>45827</v>
       </c>
       <c r="B161" t="n">
         <v>1</v>
       </c>
       <c r="C161" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
-        <v>45841</v>
+        <v>45828</v>
       </c>
       <c r="B162" t="n">
         <v>1</v>
       </c>
       <c r="C162" t="n">
-        <v>154</v>
+        <v>19</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
-        <v>45842</v>
+        <v>45831</v>
       </c>
       <c r="B163" t="n">
         <v>1</v>
       </c>
       <c r="C163" t="n">
-        <v>57</v>
+        <v>46</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
-        <v>45845</v>
+        <v>45832</v>
       </c>
       <c r="B164" t="n">
         <v>1</v>
       </c>
       <c r="C164" t="n">
-        <v>52</v>
+        <v>82</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
-        <v>45846</v>
+        <v>45833</v>
       </c>
       <c r="B165" t="n">
         <v>1</v>
       </c>
       <c r="C165" t="n">
-        <v>43</v>
+        <v>63</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
-        <v>45847</v>
+        <v>45834</v>
       </c>
       <c r="B166" t="n">
         <v>1</v>
       </c>
       <c r="C166" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>45848</v>
+        <v>45835</v>
       </c>
       <c r="B167" t="n">
         <v>1</v>
       </c>
       <c r="C167" t="n">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
-        <v>45849</v>
+        <v>45838</v>
       </c>
       <c r="B168" t="n">
         <v>1</v>
       </c>
       <c r="C168" t="n">
-        <v>41</v>
+        <v>17</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
-        <v>45852</v>
+        <v>45839</v>
       </c>
       <c r="B169" t="n">
         <v>1</v>
       </c>
       <c r="C169" t="n">
-        <v>88</v>
+        <v>64</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
-        <v>45853</v>
+        <v>45840</v>
       </c>
       <c r="B170" t="n">
         <v>1</v>
       </c>
       <c r="C170" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
-        <v>45854</v>
+        <v>45841</v>
       </c>
       <c r="B171" t="n">
         <v>1</v>
       </c>
       <c r="C171" t="n">
-        <v>89</v>
+        <v>154</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
-        <v>45855</v>
+        <v>45842</v>
       </c>
       <c r="B172" t="n">
         <v>1</v>
       </c>
       <c r="C172" t="n">
-        <v>45</v>
+        <v>57</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
-        <v>45856</v>
+        <v>45845</v>
       </c>
       <c r="B173" t="n">
         <v>1</v>
       </c>
       <c r="C173" t="n">
-        <v>8</v>
+        <v>52</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
-        <v>45859</v>
+        <v>45846</v>
       </c>
       <c r="B174" t="n">
         <v>1</v>
       </c>
       <c r="C174" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
-        <v>45860</v>
+        <v>45847</v>
       </c>
       <c r="B175" t="n">
         <v>1</v>
       </c>
       <c r="C175" t="n">
-        <v>73</v>
+        <v>37</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
-        <v>45861</v>
+        <v>45848</v>
       </c>
       <c r="B176" t="n">
         <v>1</v>
       </c>
       <c r="C176" t="n">
-        <v>21</v>
+        <v>87</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
-        <v>45862</v>
+        <v>45849</v>
       </c>
       <c r="B177" t="n">
         <v>1</v>
       </c>
       <c r="C177" t="n">
-        <v>13</v>
+        <v>41</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
-        <v>45863</v>
+        <v>45852</v>
       </c>
       <c r="B178" t="n">
         <v>1</v>
       </c>
       <c r="C178" t="n">
-        <v>39</v>
+        <v>88</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
-        <v>45866</v>
+        <v>45853</v>
       </c>
       <c r="B179" t="n">
         <v>1</v>
       </c>
       <c r="C179" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
-        <v>45867</v>
+        <v>45854</v>
       </c>
       <c r="B180" t="n">
         <v>1</v>
       </c>
       <c r="C180" t="n">
-        <v>31</v>
+        <v>89</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
-        <v>45868</v>
+        <v>45855</v>
       </c>
       <c r="B181" t="n">
         <v>1</v>
       </c>
       <c r="C181" t="n">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>45869</v>
+        <v>45856</v>
       </c>
       <c r="B182" t="n">
         <v>1</v>
       </c>
       <c r="C182" t="n">
-        <v>46</v>
+        <v>8</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
-        <v>45870</v>
+        <v>45859</v>
       </c>
       <c r="B183" t="n">
         <v>1</v>
       </c>
       <c r="C183" t="n">
-        <v>25</v>
+        <v>44</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
-        <v>45873</v>
+        <v>45860</v>
       </c>
       <c r="B184" t="n">
         <v>1</v>
       </c>
       <c r="C184" t="n">
-        <v>42</v>
+        <v>73</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
-        <v>45874</v>
+        <v>45861</v>
       </c>
       <c r="B185" t="n">
         <v>1</v>
       </c>
       <c r="C185" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
-        <v>45875</v>
+        <v>45862</v>
       </c>
       <c r="B186" t="n">
         <v>1</v>
       </c>
       <c r="C186" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
-        <v>45876</v>
+        <v>45863</v>
       </c>
       <c r="B187" t="n">
         <v>1</v>
       </c>
       <c r="C187" t="n">
-        <v>1</v>
+        <v>39</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
-        <v>45877</v>
+        <v>45866</v>
       </c>
       <c r="B188" t="n">
         <v>1</v>
       </c>
       <c r="C188" t="n">
-        <v>69</v>
+        <v>16</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
-        <v>45880</v>
+        <v>45867</v>
       </c>
       <c r="B189" t="n">
         <v>1</v>
       </c>
       <c r="C189" t="n">
-        <v>2</v>
+        <v>31</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
-        <v>45881</v>
+        <v>45868</v>
       </c>
       <c r="B190" t="n">
         <v>1</v>
       </c>
       <c r="C190" t="n">
-        <v>15</v>
+        <v>41</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
-        <v>45882</v>
+        <v>45869</v>
       </c>
       <c r="B191" t="n">
         <v>1</v>
       </c>
       <c r="C191" t="n">
-        <v>2</v>
+        <v>46</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
-        <v>45883</v>
+        <v>45870</v>
       </c>
       <c r="B192" t="n">
         <v>1</v>
       </c>
       <c r="C192" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
-        <v>45884</v>
+        <v>45873</v>
       </c>
       <c r="B193" t="n">
         <v>1</v>
       </c>
       <c r="C193" t="n">
-        <v>7</v>
+        <v>42</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
-        <v>45887</v>
+        <v>45874</v>
       </c>
       <c r="B194" t="n">
         <v>1</v>
       </c>
       <c r="C194" t="n">
-        <v>28</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
-        <v>45888</v>
+        <v>45875</v>
       </c>
       <c r="B195" t="n">
         <v>1</v>
       </c>
       <c r="C195" t="n">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
-        <v>45889</v>
+        <v>45876</v>
       </c>
       <c r="B196" t="n">
         <v>1</v>
       </c>
       <c r="C196" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
-        <v>45890</v>
+        <v>45877</v>
       </c>
       <c r="B197" t="n">
         <v>1</v>
       </c>
       <c r="C197" t="n">
-        <v>8</v>
+        <v>69</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
-        <v>45891</v>
+        <v>45880</v>
       </c>
       <c r="B198" t="n">
         <v>1</v>
       </c>
       <c r="C198" t="n">
-        <v>54</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
-        <v>45892</v>
+        <v>45881</v>
       </c>
       <c r="B199" t="n">
         <v>1</v>
       </c>
       <c r="C199" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
-        <v>45894</v>
+        <v>45882</v>
       </c>
       <c r="B200" t="n">
         <v>1</v>
       </c>
       <c r="C200" t="n">
-        <v>54</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
-        <v>45895</v>
+        <v>45883</v>
       </c>
       <c r="B201" t="n">
         <v>1</v>
       </c>
       <c r="C201" t="n">
-        <v>21</v>
+        <v>50</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
-        <v>45896</v>
+        <v>45884</v>
       </c>
       <c r="B202" t="n">
         <v>1</v>
       </c>
       <c r="C202" t="n">
-        <v>57</v>
+        <v>7</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
-        <v>45897</v>
+        <v>45887</v>
       </c>
       <c r="B203" t="n">
         <v>1</v>
       </c>
       <c r="C203" t="n">
-        <v>73</v>
+        <v>28</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
-        <v>45898</v>
+        <v>45888</v>
       </c>
       <c r="B204" t="n">
         <v>1</v>
       </c>
       <c r="C204" t="n">
-        <v>64</v>
+        <v>32</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
-        <v>45901</v>
+        <v>45889</v>
       </c>
       <c r="B205" t="n">
         <v>1</v>
       </c>
       <c r="C205" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
-        <v>45902</v>
+        <v>45890</v>
       </c>
       <c r="B206" t="n">
         <v>1</v>
       </c>
       <c r="C206" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
-        <v>45903</v>
+        <v>45891</v>
       </c>
       <c r="B207" t="n">
         <v>1</v>
       </c>
       <c r="C207" t="n">
-        <v>17</v>
+        <v>54</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
-        <v>45904</v>
+        <v>45892</v>
       </c>
       <c r="B208" t="n">
         <v>1</v>
       </c>
       <c r="C208" t="n">
-        <v>33</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
-        <v>45908</v>
+        <v>45894</v>
       </c>
       <c r="B209" t="n">
         <v>1</v>
       </c>
       <c r="C209" t="n">
-        <v>37</v>
+        <v>54</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
-        <v>45909</v>
+        <v>45895</v>
       </c>
       <c r="B210" t="n">
         <v>1</v>
       </c>
       <c r="C210" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
-        <v>45910</v>
+        <v>45896</v>
       </c>
       <c r="B211" t="n">
         <v>1</v>
       </c>
       <c r="C211" t="n">
-        <v>8</v>
+        <v>57</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
-        <v>45911</v>
+        <v>45897</v>
       </c>
       <c r="B212" t="n">
         <v>1</v>
       </c>
       <c r="C212" t="n">
-        <v>8</v>
+        <v>73</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
-        <v>45912</v>
+        <v>45898</v>
       </c>
       <c r="B213" t="n">
         <v>1</v>
       </c>
       <c r="C213" t="n">
-        <v>34</v>
+        <v>64</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
-        <v>45915</v>
+        <v>45901</v>
       </c>
       <c r="B214" t="n">
         <v>1</v>
       </c>
       <c r="C214" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
-        <v>45916</v>
+        <v>45902</v>
       </c>
       <c r="B215" t="n">
         <v>1</v>
       </c>
       <c r="C215" t="n">
-        <v>132</v>
+        <v>18</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
-        <v>45917</v>
+        <v>45903</v>
       </c>
       <c r="B216" t="n">
         <v>1</v>
       </c>
       <c r="C216" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
-        <v>45918</v>
+        <v>45904</v>
       </c>
       <c r="B217" t="n">
         <v>1</v>
       </c>
       <c r="C217" t="n">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
-        <v>45922</v>
+        <v>45908</v>
       </c>
       <c r="B218" t="n">
         <v>1</v>
       </c>
       <c r="C218" t="n">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
-        <v>45923</v>
+        <v>45909</v>
       </c>
       <c r="B219" t="n">
         <v>1</v>
       </c>
       <c r="C219" t="n">
-        <v>36</v>
+        <v>12</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
-        <v>45924</v>
+        <v>45910</v>
       </c>
       <c r="B220" t="n">
         <v>1</v>
       </c>
       <c r="C220" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
-        <v>45925</v>
+        <v>45911</v>
       </c>
       <c r="B221" t="n">
         <v>1</v>
       </c>
       <c r="C221" t="n">
-        <v>25</v>
+        <v>8</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
-        <v>45926</v>
+        <v>45912</v>
       </c>
       <c r="B222" t="n">
         <v>1</v>
       </c>
       <c r="C222" t="n">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="n">
-        <v>45929</v>
+        <v>45915</v>
       </c>
       <c r="B223" t="n">
         <v>1</v>
       </c>
       <c r="C223" t="n">
-        <v>57</v>
+        <v>8</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
-        <v>45930</v>
+        <v>45916</v>
       </c>
       <c r="B224" t="n">
         <v>1</v>
       </c>
       <c r="C224" t="n">
-        <v>13</v>
+        <v>132</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="n">
-        <v>45931</v>
+        <v>45917</v>
       </c>
       <c r="B225" t="n">
         <v>1</v>
       </c>
       <c r="C225" t="n">
-        <v>55</v>
+        <v>34</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
-        <v>45932</v>
+        <v>45918</v>
       </c>
       <c r="B226" t="n">
         <v>1</v>
       </c>
       <c r="C226" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
-        <v>45933</v>
+        <v>45922</v>
       </c>
       <c r="B227" t="n">
         <v>1</v>
       </c>
       <c r="C227" t="n">
-        <v>77</v>
+        <v>16</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
-        <v>45934</v>
+        <v>45923</v>
       </c>
       <c r="B228" t="n">
         <v>1</v>
       </c>
       <c r="C228" t="n">
-        <v>15</v>
+        <v>36</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
-        <v>45936</v>
+        <v>45924</v>
       </c>
       <c r="B229" t="n">
         <v>1</v>
       </c>
       <c r="C229" t="n">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
-        <v>45937</v>
+        <v>45925</v>
       </c>
       <c r="B230" t="n">
         <v>1</v>
       </c>
       <c r="C230" t="n">
-        <v>41</v>
+        <v>25</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="n">
-        <v>45938</v>
+        <v>45926</v>
       </c>
       <c r="B231" t="n">
         <v>1</v>
       </c>
       <c r="C231" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
-        <v>45939</v>
+        <v>45929</v>
       </c>
       <c r="B232" t="n">
         <v>1</v>
       </c>
       <c r="C232" t="n">
-        <v>33</v>
+        <v>57</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
-        <v>45940</v>
+        <v>45930</v>
       </c>
       <c r="B233" t="n">
         <v>1</v>
       </c>
       <c r="C233" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
-        <v>45943</v>
+        <v>45931</v>
       </c>
       <c r="B234" t="n">
         <v>1</v>
       </c>
       <c r="C234" t="n">
-        <v>22</v>
+        <v>55</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="n">
-        <v>45944</v>
+        <v>45932</v>
       </c>
       <c r="B235" t="n">
         <v>1</v>
       </c>
       <c r="C235" t="n">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="n">
-        <v>45945</v>
+        <v>45933</v>
       </c>
       <c r="B236" t="n">
         <v>1</v>
       </c>
       <c r="C236" t="n">
-        <v>1</v>
+        <v>77</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="n">
-        <v>45946</v>
+        <v>45934</v>
       </c>
       <c r="B237" t="n">
         <v>1</v>
       </c>
       <c r="C237" t="n">
-        <v>49</v>
+        <v>15</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="n">
-        <v>45947</v>
+        <v>45936</v>
       </c>
       <c r="B238" t="n">
         <v>1</v>
       </c>
       <c r="C238" t="n">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="n">
-        <v>45948</v>
+        <v>45937</v>
       </c>
       <c r="B239" t="n">
         <v>1</v>
       </c>
       <c r="C239" t="n">
-        <v>10</v>
+        <v>41</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="n">
-        <v>45950</v>
+        <v>45938</v>
       </c>
       <c r="B240" t="n">
         <v>1</v>
       </c>
       <c r="C240" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="n">
-        <v>45951</v>
+        <v>45939</v>
       </c>
       <c r="B241" t="n">
         <v>1</v>
       </c>
       <c r="C241" t="n">
-        <v>14</v>
+        <v>33</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="n">
-        <v>45952</v>
+        <v>45940</v>
       </c>
       <c r="B242" t="n">
         <v>1</v>
       </c>
       <c r="C242" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="n">
-        <v>45953</v>
+        <v>45943</v>
       </c>
       <c r="B243" t="n">
         <v>1</v>
       </c>
       <c r="C243" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="n">
-        <v>45954</v>
+        <v>45944</v>
       </c>
       <c r="B244" t="n">
         <v>1</v>
       </c>
       <c r="C244" t="n">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="n">
-        <v>45957</v>
+        <v>45945</v>
       </c>
       <c r="B245" t="n">
         <v>1</v>
       </c>
       <c r="C245" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="n">
-        <v>45958</v>
+        <v>45946</v>
       </c>
       <c r="B246" t="n">
         <v>1</v>
       </c>
       <c r="C246" t="n">
-        <v>42</v>
+        <v>49</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="n">
-        <v>45959</v>
+        <v>45947</v>
       </c>
       <c r="B247" t="n">
         <v>1</v>
@@ -3162,216 +3162,216 @@
     </row>
     <row r="248">
       <c r="A248" s="2" t="n">
-        <v>45960</v>
+        <v>45948</v>
       </c>
       <c r="B248" t="n">
         <v>1</v>
       </c>
       <c r="C248" t="n">
-        <v>32</v>
+        <v>10</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="n">
-        <v>45961</v>
+        <v>45950</v>
       </c>
       <c r="B249" t="n">
         <v>1</v>
       </c>
       <c r="C249" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="n">
-        <v>45962</v>
+        <v>45951</v>
       </c>
       <c r="B250" t="n">
         <v>1</v>
       </c>
       <c r="C250" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="n">
-        <v>45964</v>
+        <v>45952</v>
       </c>
       <c r="B251" t="n">
         <v>1</v>
       </c>
       <c r="C251" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="n">
-        <v>45965</v>
+        <v>45953</v>
       </c>
       <c r="B252" t="n">
         <v>1</v>
       </c>
       <c r="C252" t="n">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="n">
-        <v>45966</v>
+        <v>45954</v>
       </c>
       <c r="B253" t="n">
         <v>1</v>
       </c>
       <c r="C253" t="n">
-        <v>3</v>
+        <v>24</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="n">
-        <v>45967</v>
+        <v>45957</v>
       </c>
       <c r="B254" t="n">
         <v>1</v>
       </c>
       <c r="C254" t="n">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="n">
-        <v>45968</v>
+        <v>45958</v>
       </c>
       <c r="B255" t="n">
         <v>1</v>
       </c>
       <c r="C255" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="n">
-        <v>45971</v>
+        <v>45959</v>
       </c>
       <c r="B256" t="n">
         <v>1</v>
       </c>
       <c r="C256" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="n">
-        <v>45972</v>
+        <v>45960</v>
       </c>
       <c r="B257" t="n">
         <v>1</v>
       </c>
       <c r="C257" t="n">
-        <v>46</v>
+        <v>32</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="n">
-        <v>45973</v>
+        <v>45961</v>
       </c>
       <c r="B258" t="n">
         <v>1</v>
       </c>
       <c r="C258" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="n">
-        <v>45974</v>
+        <v>45962</v>
       </c>
       <c r="B259" t="n">
         <v>1</v>
       </c>
       <c r="C259" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="n">
-        <v>45975</v>
+        <v>45964</v>
       </c>
       <c r="B260" t="n">
         <v>1</v>
       </c>
       <c r="C260" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="n">
-        <v>45978</v>
+        <v>45965</v>
       </c>
       <c r="B261" t="n">
         <v>1</v>
       </c>
       <c r="C261" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="n">
-        <v>45980</v>
+        <v>45966</v>
       </c>
       <c r="B262" t="n">
         <v>1</v>
       </c>
       <c r="C262" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="n">
-        <v>45982</v>
+        <v>45967</v>
       </c>
       <c r="B263" t="n">
         <v>1</v>
       </c>
       <c r="C263" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="n">
-        <v>45985</v>
+        <v>45968</v>
       </c>
       <c r="B264" t="n">
         <v>1</v>
       </c>
       <c r="C264" t="n">
-        <v>13</v>
+        <v>40</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="n">
-        <v>45986</v>
+        <v>45971</v>
       </c>
       <c r="B265" t="n">
         <v>1</v>
       </c>
       <c r="C265" t="n">
-        <v>2</v>
+        <v>23</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="n">
-        <v>45987</v>
+        <v>45972</v>
       </c>
       <c r="B266" t="n">
         <v>1</v>
       </c>
       <c r="C266" t="n">
-        <v>20</v>
+        <v>46</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="2" t="n">
-        <v>45988</v>
+        <v>45973</v>
       </c>
       <c r="B267" t="n">
         <v>1</v>
@@ -3382,79 +3382,189 @@
     </row>
     <row r="268">
       <c r="A268" s="2" t="n">
-        <v>45989</v>
+        <v>45974</v>
       </c>
       <c r="B268" t="n">
         <v>1</v>
       </c>
       <c r="C268" t="n">
-        <v>34</v>
+        <v>20</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="n">
-        <v>45990</v>
+        <v>45975</v>
       </c>
       <c r="B269" t="n">
         <v>1</v>
       </c>
       <c r="C269" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="2" t="n">
-        <v>46024</v>
+        <v>45978</v>
       </c>
       <c r="B270" t="n">
         <v>1</v>
       </c>
       <c r="C270" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="2" t="n">
-        <v>46027</v>
+        <v>45980</v>
       </c>
       <c r="B271" t="n">
         <v>1</v>
       </c>
       <c r="C271" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="n">
-        <v>46028</v>
+        <v>45982</v>
       </c>
       <c r="B272" t="n">
         <v>1</v>
       </c>
       <c r="C272" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="n">
-        <v>46029</v>
+        <v>45985</v>
       </c>
       <c r="B273" t="n">
         <v>1</v>
       </c>
       <c r="C273" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="2" t="n">
+        <v>45986</v>
+      </c>
+      <c r="B274" t="n">
+        <v>1</v>
+      </c>
+      <c r="C274" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="2" t="n">
+        <v>45987</v>
+      </c>
+      <c r="B275" t="n">
+        <v>1</v>
+      </c>
+      <c r="C275" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="2" t="n">
+        <v>45988</v>
+      </c>
+      <c r="B276" t="n">
+        <v>1</v>
+      </c>
+      <c r="C276" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="2" t="n">
+        <v>45989</v>
+      </c>
+      <c r="B277" t="n">
+        <v>1</v>
+      </c>
+      <c r="C277" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="2" t="n">
+        <v>45990</v>
+      </c>
+      <c r="B278" t="n">
+        <v>1</v>
+      </c>
+      <c r="C278" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="2" t="n">
+        <v>46024</v>
+      </c>
+      <c r="B279" t="n">
+        <v>1</v>
+      </c>
+      <c r="C279" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="2" t="n">
+        <v>46027</v>
+      </c>
+      <c r="B280" t="n">
+        <v>1</v>
+      </c>
+      <c r="C280" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="2" t="n">
+        <v>46028</v>
+      </c>
+      <c r="B281" t="n">
+        <v>1</v>
+      </c>
+      <c r="C281" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="2" t="n">
+        <v>46029</v>
+      </c>
+      <c r="B282" t="n">
+        <v>1</v>
+      </c>
+      <c r="C282" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="2" t="n">
         <v>46030</v>
       </c>
-      <c r="B274" t="n">
-        <v>1</v>
-      </c>
-      <c r="C274" t="n">
-        <v>75</v>
+      <c r="B283" t="n">
+        <v>1</v>
+      </c>
+      <c r="C283" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="2" t="n">
+        <v>46031</v>
+      </c>
+      <c r="B284" t="n">
+        <v>1</v>
+      </c>
+      <c r="C284" t="n">
+        <v>171</v>
       </c>
     </row>
   </sheetData>
